--- a/inertia_sim/N45_case_data_NordLink/powerflow_Statnett.xlsx
+++ b/inertia_sim/N45_case_data_NordLink/powerflow_Statnett.xlsx
@@ -73,7 +73,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -105,13 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -433,11 +430,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,99 +442,99 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>963</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="B2" s="2">
+        <v>1017</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>-792</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="B4" s="3">
+        <v>-1372</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>-1486</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="B5" s="2">
+        <v>-1603</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>620</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="B7" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>-432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="B8" s="2">
+        <v>-340</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>377</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="B9" s="3">
+        <v>-246</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>535</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="B10" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>703</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="B11" s="3">
+        <v>733</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <v>297</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="B12" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1057</v>
       </c>
     </row>
